--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>657595.4833448004</v>
+        <v>701456.980617088</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484466</v>
+        <v>492028.934248445</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7655249.135119138</v>
+        <v>7674188.530424524</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +659,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>332.4291174559667</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>400.378084420692</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -871,16 +871,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>243.8398845373353</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>262.5026715028852</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>105.0973720319683</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>243.2369870320184</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1069,7 +1069,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1105,22 +1105,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>153.2006427344284</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>125.8728979206778</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1142,16 +1142,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>193.6611932934748</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1199,7 +1199,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>240.7538247840594</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170431</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>57.55526645595501</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>154.025442045436</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.43430199953005</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1540,7 +1540,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170523</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1658,13 +1658,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>206.4855017772195</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>90.97964783088976</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1765,7 +1765,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>80.61608517870624</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170566</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1856,13 +1856,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>212.1880754063476</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,13 +1895,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>33.08339867820058</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2011,7 +2011,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>35.3478058351354</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2081,7 +2081,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>166.162536832919</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>146.9399060518621</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2305,7 +2305,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>2.008513159455165</v>
       </c>
     </row>
     <row r="23">
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2488,7 +2488,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>94.21878984361742</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>186.8912189631394</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2719,7 +2719,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>27.33721772847642</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2779,7 +2779,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2956,19 +2956,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>83.42661545872164</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>45.76594660771076</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225841</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3250,7 +3250,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800578</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3278,7 +3278,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629692</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
@@ -3427,7 +3427,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3439,10 +3439,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225808</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>52.79556056590941</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3661,7 +3661,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3670,16 +3670,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225694</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3724,7 +3724,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>201.6415919753823</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3797,7 +3797,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225819</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225841</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4198,7 +4198,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>45.76594660771039</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1654.761434047123</v>
+        <v>1265.851063100792</v>
       </c>
       <c r="C2" t="n">
-        <v>1318.974446717864</v>
+        <v>1231.748994324619</v>
       </c>
       <c r="D2" t="n">
-        <v>890.3927724551322</v>
+        <v>1199.879613539468</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>766.1048686977629</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.2374391069706</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.2374391069706</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018684</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018684</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>484.3619720031047</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>1092.064618311667</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1132.008730489128</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489128</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489128</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489128</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797691</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756285</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693179</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693179</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2112.490051010196</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2112.490051010196</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1707.634596421229</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1692.532537040944</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>1288.110229545296</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414796</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.8225683781219</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246752</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516289</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>176.2280264677905</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>90.84293673397437</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018684</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064444</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768568</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985419</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985419</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985419</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985419</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.068709842022</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212428</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1024.341879988165</v>
+        <v>1039.505495936744</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>866.9437844199684</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>701.0657916214911</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>531.3077878722285</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>354.6007338339847</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>189.0094588598123</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018684</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018684</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>135.6869697148767</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>410.4454242860123</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>828.6553060539734</v>
       </c>
       <c r="M4" t="n">
-        <v>509.954387939391</v>
+        <v>1077.736506291242</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1519.995309448887</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1939.664558674668</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.17145264501</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214714</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2274.705037512711</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2028.825591091166</v>
       </c>
       <c r="U4" t="n">
-        <v>1024.341879988165</v>
+        <v>2028.825591091166</v>
       </c>
       <c r="V4" t="n">
-        <v>1024.341879988165</v>
+        <v>1741.870082961596</v>
       </c>
       <c r="W4" t="n">
-        <v>1024.341879988165</v>
+        <v>1476.715869322318</v>
       </c>
       <c r="X4" t="n">
-        <v>1024.341879988165</v>
+        <v>1231.324114655731</v>
       </c>
       <c r="Y4" t="n">
-        <v>1024.341879988165</v>
+        <v>1231.324114655731</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>626.6133988393536</v>
+        <v>866.1045910388293</v>
       </c>
       <c r="C5" t="n">
-        <v>592.511330063181</v>
+        <v>832.0025222626566</v>
       </c>
       <c r="D5" t="n">
-        <v>486.3523684147282</v>
+        <v>800.1331414775052</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>267.8706684926505</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1477.116202953456</v>
+        <v>2120.647799193335</v>
       </c>
       <c r="V5" t="n">
-        <v>1477.116202953456</v>
+        <v>2120.647799193335</v>
       </c>
       <c r="W5" t="n">
-        <v>1072.260748364489</v>
+        <v>1715.792344604369</v>
       </c>
       <c r="X5" t="n">
-        <v>653.1182849437999</v>
+        <v>1296.64988118368</v>
       </c>
       <c r="Y5" t="n">
-        <v>648.8725652838574</v>
+        <v>888.3637574833331</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>973.0996549038641</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>800.5379433870891</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>634.6599505886118</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>464.9019468393491</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>288.1948928011053</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="U7" t="n">
-        <v>1292.062614956869</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>1292.062614956869</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1292.062614956869</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1292.062614956869</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>1164.918273622851</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>445.4349059283099</v>
+        <v>749.1815672676233</v>
       </c>
       <c r="C8" t="n">
-        <v>411.3328371521372</v>
+        <v>311.0390944510467</v>
       </c>
       <c r="D8" t="n">
-        <v>379.4634563669858</v>
+        <v>279.1697136658952</v>
       </c>
       <c r="E8" t="n">
-        <v>349.729115565685</v>
+        <v>249.4353728645945</v>
       </c>
       <c r="F8" t="n">
-        <v>325.9020900152968</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>325.9020900152968</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851308</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851308</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114309</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>927.0793242105303</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>928.4913703274553</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="M8" t="n">
-        <v>928.4913703274553</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="N8" t="n">
-        <v>928.4913703274553</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="O8" t="n">
-        <v>928.4913703274553</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P8" t="n">
-        <v>1383.544071626555</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
-        <v>1838.596772925654</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925654</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1754.944899109491</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1534.87767198253</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1534.87767198253</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1534.87767198253</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>1130.022217393563</v>
+        <v>1598.869320833163</v>
       </c>
       <c r="X8" t="n">
-        <v>710.8797539728736</v>
+        <v>1179.726857412474</v>
       </c>
       <c r="Y8" t="n">
-        <v>467.6940723728136</v>
+        <v>1175.481137752531</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498059</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864482</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330014</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599551</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761168</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230062</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851308</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897068</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.393933585183</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>387.393933585183</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>387.393933585183</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>387.393933585183</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>387.393933585183</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>672.7335162447837</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543883</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716307</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114684</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503483</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295691</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1115.830096070395</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C10" t="n">
-        <v>943.2683845536195</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D10" t="n">
-        <v>777.3903917551422</v>
+        <v>424.4553496309879</v>
       </c>
       <c r="E10" t="n">
-        <v>607.6323880058794</v>
+        <v>254.6973458817252</v>
       </c>
       <c r="F10" t="n">
-        <v>430.9253339676356</v>
+        <v>77.9902918434814</v>
       </c>
       <c r="G10" t="n">
-        <v>265.3340589934633</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838378</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851308</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851308</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851308</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>174.1091252727869</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>629.1618265718862</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1071.420629729531</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1491.089878955312</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925654</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925654</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925654</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925654</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925654</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1838.596772925654</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1838.596772925654</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W10" t="n">
-        <v>1780.460140141861</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1535.068385475274</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y10" t="n">
-        <v>1307.648714789382</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245547</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
         <v>1649.322926419992</v>
@@ -5027,64 +5027,64 @@
         <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874947</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107585</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397503</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I11" t="n">
-        <v>96.7359766811151</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J11" t="n">
-        <v>531.990664134033</v>
+        <v>403.2461837293665</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1237.596475687544</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940404</v>
       </c>
       <c r="M11" t="n">
-        <v>2481.810506693457</v>
+        <v>2312.656441940404</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693457</v>
+        <v>2312.656441940404</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.990173263764</v>
+        <v>3292.83610851071</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.30004809716</v>
+        <v>4121.145983344106</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055755</v>
+        <v>4667.644769302701</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055755</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S11" t="n">
-        <v>4764.642973450169</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T11" t="n">
-        <v>4544.575746323208</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257034</v>
+        <v>3911.240480363476</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247378</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.9077216724079</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090502</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D12" t="n">
         <v>401.3609716556035</v>
@@ -5109,13 +5109,13 @@
         <v>223.8567185987188</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649026</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.7359766811151</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415727</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
         <v>447.3579748077851</v>
@@ -5160,10 +5160,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729503</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.211622752171</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.2298140987277</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C13" t="n">
-        <v>633.6681025819528</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D13" t="n">
-        <v>467.7901097834754</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E13" t="n">
-        <v>298.0321060342127</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F13" t="n">
-        <v>121.3250519959689</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>96.7359766811151</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="H13" t="n">
-        <v>96.7359766811151</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111577</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458056</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169412</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849023</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.02666852346</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O13" t="n">
         <v>2197.695917749241</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881912</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460367</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.841770713472</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.886262583903</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.859858170194</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.468103503607</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y13" t="n">
-        <v>998.0484328177149</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2523.375184062124</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>2085.232711245547</v>
       </c>
       <c r="D14" t="n">
         <v>1649.322926419992</v>
@@ -5264,61 +5264,61 @@
         <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874949</v>
+        <v>787.6807519874945</v>
       </c>
       <c r="G14" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.1527660539751</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I14" t="n">
-        <v>96.7359766811151</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J14" t="n">
-        <v>96.7359766811151</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="K14" t="n">
-        <v>931.0862686392931</v>
+        <v>931.0862686392932</v>
       </c>
       <c r="L14" t="n">
-        <v>1573.84034883845</v>
+        <v>2006.146234892153</v>
       </c>
       <c r="M14" t="n">
-        <v>2730.888184049001</v>
+        <v>2006.146234892153</v>
       </c>
       <c r="N14" t="n">
-        <v>3856.619167485448</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O14" t="n">
-        <v>4836.798834055755</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P14" t="n">
-        <v>4836.798834055755</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055755</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055755</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239592</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T14" t="n">
-        <v>4544.575746323208</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257035</v>
+        <v>4181.958796257034</v>
       </c>
       <c r="W14" t="n">
         <v>3777.103341668068</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3357.960878247378</v>
       </c>
       <c r="Y14" t="n">
         <v>2949.674754547032</v>
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.9077216724079</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090502</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D15" t="n">
         <v>401.3609716556035</v>
@@ -5346,31 +5346,31 @@
         <v>223.8567185987188</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649026</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.7359766811151</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415727</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5397,10 +5397,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729503</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.211622752171</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1084.662814845622</v>
+        <v>806.2298140987283</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776221</v>
+        <v>633.6681025819532</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777442</v>
+        <v>467.7901097834759</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284814</v>
+        <v>298.0321060342131</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902376</v>
+        <v>121.3250519959693</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064398</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I16" t="n">
-        <v>96.7359766811151</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J16" t="n">
         <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169405</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
         <v>876.2839981849016</v>
@@ -5467,19 +5467,19 @@
         <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2308.274771460367</v>
+        <v>2029.841770713473</v>
       </c>
       <c r="V16" t="n">
-        <v>2021.319263330797</v>
+        <v>1742.886262583903</v>
       </c>
       <c r="W16" t="n">
-        <v>1749.292858917089</v>
+        <v>1470.859858170195</v>
       </c>
       <c r="X16" t="n">
-        <v>1503.901104250501</v>
+        <v>1225.468103503607</v>
       </c>
       <c r="Y16" t="n">
-        <v>1276.481433564609</v>
+        <v>998.0484328177154</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.958394689264</v>
+        <v>2336.308741984729</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.815921872687</v>
+        <v>1898.166269168152</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.906137047132</v>
+        <v>1462.256484342597</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.131392205427</v>
+        <v>1028.481739500892</v>
       </c>
       <c r="F17" t="n">
-        <v>787.263962614635</v>
+        <v>600.6143099101</v>
       </c>
       <c r="G17" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111513</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J17" t="n">
         <v>531.9906641340331</v>
@@ -5522,43 +5522,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="N17" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O17" t="n">
-        <v>3421.580588915377</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P17" t="n">
-        <v>4249.890463748773</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q17" t="n">
-        <v>4796.389249707368</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055757</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S17" t="n">
-        <v>4836.798834055757</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="T17" t="n">
-        <v>4803.381259633332</v>
+        <v>4616.731606928796</v>
       </c>
       <c r="U17" t="n">
-        <v>4544.158956950349</v>
+        <v>4357.509304245813</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.542006884174</v>
+        <v>3994.892354179639</v>
       </c>
       <c r="W17" t="n">
-        <v>3776.686552295208</v>
+        <v>3590.036899590673</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.544088874518</v>
+        <v>3170.894436169984</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.257965174172</v>
+        <v>2762.608312469637</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.9077216724079</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C18" t="n">
-        <v>496.4512605090502</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D18" t="n">
         <v>401.3609716556035</v>
@@ -5586,10 +5586,10 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I18" t="n">
-        <v>122.7996498415727</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
         <v>447.3579748077851</v>
@@ -5634,10 +5634,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X18" t="n">
-        <v>850.6974019729503</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y18" t="n">
-        <v>724.211622752171</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.2298140987273</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C19" t="n">
-        <v>633.6681025819522</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D19" t="n">
-        <v>467.7901097834749</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E19" t="n">
-        <v>298.0321060342122</v>
+        <v>439.0343056935314</v>
       </c>
       <c r="F19" t="n">
-        <v>262.3272516552875</v>
+        <v>262.3272516552876</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111523</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111523</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J19" t="n">
         <v>183.315661845805</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460367</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.841770713472</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583902</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.859858170194</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.468103503606</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>998.0484328177145</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168565</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.815921872687</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F20" t="n">
-        <v>787.263962614635</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G20" t="n">
-        <v>385.8661312378989</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111513</v>
+        <v>97.15276605397523</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111523</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5759,43 +5759,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2441.40092234507</v>
+        <v>3598.448757555621</v>
       </c>
       <c r="N20" t="n">
-        <v>2441.40092234507</v>
+        <v>3598.448757555621</v>
       </c>
       <c r="O20" t="n">
-        <v>3421.580588915377</v>
+        <v>3598.448757555621</v>
       </c>
       <c r="P20" t="n">
-        <v>4249.890463748773</v>
+        <v>4121.14598334411</v>
       </c>
       <c r="Q20" t="n">
-        <v>4796.389249707368</v>
+        <v>4667.644769302705</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055757</v>
+        <v>4836.798834055761</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239594</v>
+        <v>4753.146960239598</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112632</v>
+        <v>4533.079733112637</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429649</v>
+        <v>4273.857430429654</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363475</v>
+        <v>3911.24048036348</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774509</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.24256235382</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653473</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5805,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.9077216724079</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C21" t="n">
-        <v>496.4512605090502</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D21" t="n">
-        <v>401.3609716556035</v>
+        <v>401.3609716556036</v>
       </c>
       <c r="E21" t="n">
-        <v>307.2405569825572</v>
+        <v>307.2405569825573</v>
       </c>
       <c r="F21" t="n">
-        <v>223.8567185987188</v>
+        <v>223.8567185987189</v>
       </c>
       <c r="G21" t="n">
-        <v>138.4716288649027</v>
+        <v>138.4716288649028</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111523</v>
       </c>
       <c r="I21" t="n">
-        <v>122.7996498415727</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>447.3579748077851</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K21" t="n">
         <v>1102.064021433509</v>
@@ -5871,10 +5871,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X21" t="n">
-        <v>850.6974019729503</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y21" t="n">
-        <v>724.211622752171</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580464</v>
+        <v>1010.202862318824</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412713</v>
+        <v>837.6411508020492</v>
       </c>
       <c r="D22" t="n">
-        <v>608.792309442794</v>
+        <v>671.7631580035719</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935313</v>
+        <v>502.0051542543092</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3272516552875</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111513</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111513</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111523</v>
       </c>
       <c r="J22" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N22" t="n">
         <v>1778.026668523459</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S22" t="n">
-        <v>2695.15641754123</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T22" t="n">
-        <v>2449.276971119686</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.843970372791</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V22" t="n">
-        <v>1883.888462243221</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W22" t="n">
-        <v>1611.862057829513</v>
+        <v>1449.442036875566</v>
       </c>
       <c r="X22" t="n">
-        <v>1366.470303162925</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.050632477034</v>
+        <v>1202.021481037811</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.996046390396</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="C25" t="n">
-        <v>798.4343348736211</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D25" t="n">
-        <v>632.5563420751438</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E25" t="n">
-        <v>462.7983383258809</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F25" t="n">
-        <v>286.0912842876371</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G25" t="n">
         <v>190.9207894961043</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752035</v>
+        <v>2370.9000724179</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.60800300514</v>
+        <v>2092.467071671005</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.652494875571</v>
+        <v>1805.511563541435</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461863</v>
+        <v>1533.485159127727</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795275</v>
+        <v>1288.093404461139</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109383</v>
+        <v>1060.673733775247</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1039.174348374283</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>866.6126368575085</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>700.7346440590312</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1230.992967093271</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937638</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769887</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>451.8971520785114</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>982.155475112751</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324586</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.92045017358</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1227.547229779339</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F35" t="n">
-        <v>793.20561557716</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004234</v>
@@ -6935,52 +6935,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>842.8792965674087</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674087</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7096,7 +7096,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
         <v>881.8088617745661</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2239.052964698928</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1952.097456569359</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1680.07105215565</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1434.679297489063</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7160,10 +7160,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,52 +7172,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>1371.865819681875</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.756877347711</v>
+        <v>832.0502353276422</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309359</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324586</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831958</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F40" t="n">
-        <v>267.8521152449521</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
         <v>1341.292728955479</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1251.288524732521</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1023.868854046629</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7409,28 +7409,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
         <v>5113.04201353898</v>
@@ -7467,16 +7467,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
         <v>143.9964924545671</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
         <v>780.1951658309358</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
         <v>267.852115244952</v>
@@ -7573,7 +7573,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M43" t="n">
         <v>1341.292728955479</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651785</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835209</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771588</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004227</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.925785934734</v>
+        <v>2758.05368617668</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423626</v>
+        <v>2758.05368617668</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993932</v>
+        <v>3738.233352746986</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.389162827329</v>
+        <v>4566.543227580382</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785923</v>
+        <v>5113.042013538977</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538977</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722814</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595852</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912869</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846695</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257729</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.48574183704</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136693</v>
       </c>
     </row>
     <row r="45">
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620723</v>
       </c>
       <c r="C45" t="n">
         <v>501.9761240987146</v>
@@ -7719,13 +7719,13 @@
         <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="I45" t="n">
-        <v>128.3245134312372</v>
+        <v>128.3245134312371</v>
       </c>
       <c r="J45" t="n">
-        <v>452.8828383974496</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K45" t="n">
         <v>1107.588885023173</v>
@@ -7767,10 +7767,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626147</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418354</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674087</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K46" t="n">
         <v>463.598980006605</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130894</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
   </sheetData>
@@ -7976,16 +7976,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>613.8410568773355</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>40.34758805804199</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773356</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773355</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854691</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,19 +8134,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>58.38468441396117</v>
+        <v>251.5971719568372</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314135</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>1.426309209015244</v>
+        <v>469.6822035600077</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314135</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314134</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662633</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314135</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314134</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>138.7244341558321</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314135</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457085</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8696,7 +8696,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>40.81776196806777</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8930,22 +8930,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>649.2465456557145</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>480.4689614154631</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>40.81776196806914</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,22 +9407,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>527.9769957459489</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196806914</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9881,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352437</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>753.9218057523867</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352437</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>268.0111327346227</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>11.3810530784713</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>11.38105307847223</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>268.011132734622</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>90.22000922290107</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.592177662725</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>185.1957776566211</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>184.7831561774912</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>267.5985112554919</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>268.0111327346202</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>223.1369608195776</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>69.71657238081319</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24412,10 +24412,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>56.52943299418992</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>140.7232059832937</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>84.63380825304847</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>144.1344859240865</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627249</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627252</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>222.8531101735163</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627264</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>41.29624514453939</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627251</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627249</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>197.1718905122113</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>661773.2236545437</v>
+        <v>667604.7827455562</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>661773.2236545437</v>
+        <v>669256.1248891442</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>662860.9065236642</v>
+        <v>669256.1248891442</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>645312.7836244501</v>
+        <v>645312.7836244503</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>645312.7836244501</v>
+        <v>645312.7836244504</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>645312.7836244502</v>
+        <v>645312.7836244503</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>645312.7836244502</v>
+        <v>645312.7836244506</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>672545.7205039529</v>
+        <v>672545.7205039531</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>672545.7205039529</v>
+        <v>672545.7205039531</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>672545.7205039529</v>
+        <v>672545.7205039531</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>294881.0259397246</v>
+        <v>294881.0259397247</v>
       </c>
       <c r="C2" t="n">
         <v>294881.0259397246</v>
       </c>
       <c r="D2" t="n">
-        <v>294881.0259397247</v>
+        <v>294881.0259397246</v>
       </c>
       <c r="E2" t="n">
-        <v>278038.1438844219</v>
+        <v>278038.143884422</v>
       </c>
       <c r="F2" t="n">
-        <v>278038.1438844219</v>
+        <v>278038.143884422</v>
       </c>
       <c r="G2" t="n">
-        <v>278038.1438844219</v>
+        <v>278038.143884422</v>
       </c>
       <c r="H2" t="n">
-        <v>278038.1438844219</v>
+        <v>278038.1438844221</v>
       </c>
       <c r="I2" t="n">
         <v>289771.6712755438</v>
       </c>
       <c r="J2" t="n">
+        <v>289771.6712755437</v>
+      </c>
+      <c r="K2" t="n">
         <v>289771.6712755438</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>289771.6712755437</v>
-      </c>
-      <c r="L2" t="n">
-        <v>289771.6712755438</v>
       </c>
       <c r="M2" t="n">
         <v>289771.6712755438</v>
@@ -26353,7 +26353,7 @@
         <v>289771.6712755437</v>
       </c>
       <c r="P2" t="n">
-        <v>289771.6712755437</v>
+        <v>289771.6712755438</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039033</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390628</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200397</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520258</v>
+        <v>161735.0752101143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.45389855990652e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283964</v>
+        <v>18364.71563283934</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856136</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784484</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.61108851095</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104664</v>
+        <v>134989.9446130033</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558133</v>
+        <v>150016.3828485735</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
-        <v>180561.1778449361</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>39457.78817960741</v>
+        <v>39457.78817960742</v>
       </c>
       <c r="F4" t="n">
-        <v>39457.78817960741</v>
+        <v>39457.78817960743</v>
       </c>
       <c r="G4" t="n">
-        <v>39457.78817960738</v>
+        <v>39457.78817960743</v>
       </c>
       <c r="H4" t="n">
-        <v>39457.78817960742</v>
+        <v>39457.78817960745</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="J4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
         <v>41122.95192991271</v>
@@ -26448,16 +26448,16 @@
         <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>41122.95192991269</v>
+        <v>41122.95192991276</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991273</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="P4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991269</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.136258142</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846994</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764748</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764748</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764751</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764751</v>
+        <v>73519.34227764756</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579245</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-94299.59591302095</v>
+        <v>-131796.7496708941</v>
       </c>
       <c r="C6" t="n">
-        <v>47891.70474668899</v>
+        <v>63944.20976515619</v>
       </c>
       <c r="D6" t="n">
-        <v>41763.77047431466</v>
+        <v>81284.75413906235</v>
       </c>
       <c r="E6" t="n">
-        <v>-58738.28032485888</v>
+        <v>3249.379662255894</v>
       </c>
       <c r="F6" t="n">
-        <v>165061.013427167</v>
+        <v>164984.4548723703</v>
       </c>
       <c r="G6" t="n">
-        <v>165061.013427167</v>
+        <v>164984.4548723703</v>
       </c>
       <c r="H6" t="n">
-        <v>165061.0134271669</v>
+        <v>164984.45487237</v>
       </c>
       <c r="I6" t="n">
-        <v>152565.7651069989</v>
+        <v>152542.5407676166</v>
       </c>
       <c r="J6" t="n">
-        <v>59916.01539484836</v>
+        <v>10299.42691484228</v>
       </c>
       <c r="K6" t="n">
-        <v>170930.4807398385</v>
+        <v>157093.2478326111</v>
       </c>
       <c r="L6" t="n">
-        <v>161982.8696513276</v>
+        <v>170907.2564004558</v>
       </c>
       <c r="M6" t="n">
-        <v>-15860.50587062781</v>
+        <v>35917.31178745259</v>
       </c>
       <c r="N6" t="n">
-        <v>170930.4807398385</v>
+        <v>170907.2564004559</v>
       </c>
       <c r="O6" t="n">
-        <v>170930.4807398386</v>
+        <v>170907.2564004559</v>
       </c>
       <c r="P6" t="n">
-        <v>170930.4807398386</v>
+        <v>170907.256400456</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773355</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314135</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.199708513939</v>
@@ -26805,7 +26805,7 @@
         <v>1209.199708513939</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26829,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384744</v>
       </c>
     </row>
   </sheetData>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773355</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052144</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130917</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825252</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,22 +27027,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080615</v>
+        <v>69.06079487080501</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773355</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052144</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130917</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825252</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773355</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052144</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130917</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825252</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27379,13 +27379,13 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>101.3319306324442</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>3.825178042651089</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27591,16 +27591,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>31.8087862020904</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>6.803468866686217</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27619,19 +27619,19 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>326.4533149453316</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>13.39309262413482</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>122.4480280049973</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.27257605835499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27862,16 +27862,16 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>229.9275620014095</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>163.4494376792837</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>139.5921776627263</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>211.7508739136164</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -34696,16 +34696,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>613.8410568773355</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>40.34758805804199</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773356</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773355</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854691</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>58.38468441396117</v>
+        <v>251.5971719568372</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314135</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>1.426309209015244</v>
+        <v>469.6822035600077</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314135</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314134</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662633</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314135</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314134</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>138.7244341558321</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314135</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457085</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>40.81776196806777</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697549</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35650,22 +35650,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>649.2465456557145</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>480.4689614154631</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35808,7 +35808,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35890,7 +35890,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>40.81776196806914</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -36127,22 +36127,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458551</v>
+        <v>527.9769957459489</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196806914</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36525,7 +36525,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512943</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512943</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908053</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960968</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821539</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352437</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>753.9218057523867</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352437</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38178,13 +38178,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512943</v>
